--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gogo/Documents/pyFeedback/excelGenerate/dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA333582-8902-5D4C-80F2-3B7E9D0782DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C13E98-EFA1-5D4B-B079-B9A8CC8C200F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
